--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.845541</v>
+        <v>3.229813</v>
       </c>
       <c r="H2">
-        <v>5.536623</v>
+        <v>9.689439</v>
       </c>
       <c r="I2">
-        <v>0.5735115044949967</v>
+        <v>0.6314649025465834</v>
       </c>
       <c r="J2">
-        <v>0.5847017168716782</v>
+        <v>0.6663778861971119</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N2">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O2">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P2">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q2">
-        <v>4.571107924899</v>
+        <v>9.414704646594</v>
       </c>
       <c r="R2">
-        <v>41.139971324091</v>
+        <v>84.732341819346</v>
       </c>
       <c r="S2">
-        <v>0.03016596729411373</v>
+        <v>0.04486899043941258</v>
       </c>
       <c r="T2">
-        <v>0.03318512519118805</v>
+        <v>0.05025395102769838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.845541</v>
+        <v>3.229813</v>
       </c>
       <c r="H3">
-        <v>5.536623</v>
+        <v>9.689439</v>
       </c>
       <c r="I3">
-        <v>0.5735115044949967</v>
+        <v>0.6314649025465834</v>
       </c>
       <c r="J3">
-        <v>0.5847017168716782</v>
+        <v>0.6663778861971119</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N3">
         <v>22.018916</v>
       </c>
       <c r="O3">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P3">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q3">
-        <v>13.54560408451866</v>
+        <v>23.70566038090266</v>
       </c>
       <c r="R3">
-        <v>121.910436760668</v>
+        <v>213.350943428124</v>
       </c>
       <c r="S3">
-        <v>0.08939107465978982</v>
+        <v>0.1129774208451122</v>
       </c>
       <c r="T3">
-        <v>0.09833777165629977</v>
+        <v>0.1265364279156771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.845541</v>
+        <v>3.229813</v>
       </c>
       <c r="H4">
-        <v>5.536623</v>
+        <v>9.689439</v>
       </c>
       <c r="I4">
-        <v>0.5735115044949967</v>
+        <v>0.6314649025465834</v>
       </c>
       <c r="J4">
-        <v>0.5847017168716782</v>
+        <v>0.6663778861971119</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N4">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O4">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P4">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q4">
-        <v>16.86354660779433</v>
+        <v>50.58227795611067</v>
       </c>
       <c r="R4">
-        <v>151.771919470149</v>
+        <v>455.240501604996</v>
       </c>
       <c r="S4">
-        <v>0.1112870673349342</v>
+        <v>0.24106712119084</v>
       </c>
       <c r="T4">
-        <v>0.122425222624656</v>
+        <v>0.2699988384867101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.845541</v>
+        <v>3.229813</v>
       </c>
       <c r="H5">
-        <v>5.536623</v>
+        <v>9.689439</v>
       </c>
       <c r="I5">
-        <v>0.5735115044949967</v>
+        <v>0.6314649025465834</v>
       </c>
       <c r="J5">
-        <v>0.5847017168716782</v>
+        <v>0.6663778861971119</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N5">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O5">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P5">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q5">
-        <v>19.095532204768</v>
+        <v>22.971421608591</v>
       </c>
       <c r="R5">
-        <v>114.573193228608</v>
+        <v>137.828529651546</v>
       </c>
       <c r="S5">
-        <v>0.1260165389696973</v>
+        <v>0.1094781552078182</v>
       </c>
       <c r="T5">
-        <v>0.09241926132843616</v>
+        <v>0.08174479815624584</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.845541</v>
+        <v>3.229813</v>
       </c>
       <c r="H6">
-        <v>5.536623</v>
+        <v>9.689439</v>
       </c>
       <c r="I6">
-        <v>0.5735115044949967</v>
+        <v>0.6314649025465834</v>
       </c>
       <c r="J6">
-        <v>0.5847017168716782</v>
+        <v>0.6663778861971119</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N6">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O6">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P6">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q6">
-        <v>32.82952726902567</v>
+        <v>25.82402582492533</v>
       </c>
       <c r="R6">
-        <v>295.465745421231</v>
+        <v>232.416232424328</v>
       </c>
       <c r="S6">
-        <v>0.2166508562364615</v>
+        <v>0.1230732148634005</v>
       </c>
       <c r="T6">
-        <v>0.2383343360710982</v>
+        <v>0.1378438706107804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8811659999999999</v>
+        <v>0.881166</v>
       </c>
       <c r="H7">
         <v>2.643498</v>
       </c>
       <c r="I7">
-        <v>0.2738269365838191</v>
+        <v>0.1722779003977514</v>
       </c>
       <c r="J7">
-        <v>0.2791697789693912</v>
+        <v>0.1818029515853594</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N7">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O7">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P7">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q7">
-        <v>2.182506314274</v>
+        <v>2.568544257708</v>
       </c>
       <c r="R7">
-        <v>19.642556828466</v>
+        <v>23.116898319372</v>
       </c>
       <c r="S7">
-        <v>0.01440294457651443</v>
+        <v>0.01224127490648388</v>
       </c>
       <c r="T7">
-        <v>0.01584446188094353</v>
+        <v>0.01371041388813311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8811659999999999</v>
+        <v>0.881166</v>
       </c>
       <c r="H8">
         <v>2.643498</v>
       </c>
       <c r="I8">
-        <v>0.2738269365838191</v>
+        <v>0.1722779003977514</v>
       </c>
       <c r="J8">
-        <v>0.2791697789693912</v>
+        <v>0.1818029515853594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N8">
         <v>22.018916</v>
       </c>
       <c r="O8">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P8">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q8">
         <v>6.467440045351999</v>
@@ -948,10 +948,10 @@
         <v>58.20696040816799</v>
       </c>
       <c r="S8">
-        <v>0.04268037160576132</v>
+        <v>0.03082279438976935</v>
       </c>
       <c r="T8">
-        <v>0.04695203243888651</v>
+        <v>0.0345219980354112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8811659999999999</v>
+        <v>0.881166</v>
       </c>
       <c r="H9">
         <v>2.643498</v>
       </c>
       <c r="I9">
-        <v>0.2738269365838191</v>
+        <v>0.1722779003977514</v>
       </c>
       <c r="J9">
-        <v>0.2791697789693912</v>
+        <v>0.1818029515853594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N9">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O9">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P9">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q9">
-        <v>8.051614085085998</v>
+        <v>13.799988896408</v>
       </c>
       <c r="R9">
-        <v>72.46452676577398</v>
+        <v>124.199900067672</v>
       </c>
       <c r="S9">
-        <v>0.05313476101330429</v>
+        <v>0.06576856025759005</v>
       </c>
       <c r="T9">
-        <v>0.05845274839154353</v>
+        <v>0.0736617867703116</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8811659999999999</v>
+        <v>0.881166</v>
       </c>
       <c r="H10">
         <v>2.643498</v>
       </c>
       <c r="I10">
-        <v>0.2738269365838191</v>
+        <v>0.1722779003977514</v>
       </c>
       <c r="J10">
-        <v>0.2791697789693912</v>
+        <v>0.1818029515853594</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N10">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O10">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P10">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q10">
-        <v>9.117290664767999</v>
+        <v>6.267123109962</v>
       </c>
       <c r="R10">
-        <v>54.703743988608</v>
+        <v>37.602738659772</v>
       </c>
       <c r="S10">
-        <v>0.06016744660658976</v>
+        <v>0.02986811561903193</v>
       </c>
       <c r="T10">
-        <v>0.04412619975808327</v>
+        <v>0.02230182887125246</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8811659999999999</v>
+        <v>0.881166</v>
       </c>
       <c r="H11">
         <v>2.643498</v>
       </c>
       <c r="I11">
-        <v>0.2738269365838191</v>
+        <v>0.1722779003977514</v>
       </c>
       <c r="J11">
-        <v>0.2791697789693912</v>
+        <v>0.1818029515853594</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N11">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O11">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P11">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q11">
-        <v>15.674679254234</v>
+        <v>7.045378026543999</v>
       </c>
       <c r="R11">
-        <v>141.072113288106</v>
+        <v>63.408402238896</v>
       </c>
       <c r="S11">
-        <v>0.1034414127816493</v>
+        <v>0.03357715522487623</v>
       </c>
       <c r="T11">
-        <v>0.1137943364999343</v>
+        <v>0.03760692402025098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.09689233333333334</v>
+        <v>0.1066033333333333</v>
       </c>
       <c r="H12">
-        <v>0.290677</v>
+        <v>0.31981</v>
       </c>
       <c r="I12">
-        <v>0.0301097986249185</v>
+        <v>0.02084215510138645</v>
       </c>
       <c r="J12">
-        <v>0.03069729345037739</v>
+        <v>0.02199449439587765</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N12">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O12">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P12">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q12">
-        <v>0.239986710001</v>
+        <v>0.31074210726</v>
       </c>
       <c r="R12">
-        <v>2.159880390009</v>
+        <v>2.79667896534</v>
       </c>
       <c r="S12">
-        <v>0.001583736670376707</v>
+        <v>0.001480947641285376</v>
       </c>
       <c r="T12">
-        <v>0.001742244800702336</v>
+        <v>0.001658683859629873</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.09689233333333334</v>
+        <v>0.1066033333333333</v>
       </c>
       <c r="H13">
-        <v>0.290677</v>
+        <v>0.31981</v>
       </c>
       <c r="I13">
-        <v>0.0301097986249185</v>
+        <v>0.02084215510138645</v>
       </c>
       <c r="J13">
-        <v>0.03069729345037739</v>
+        <v>0.02199449439587765</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N13">
         <v>22.018916</v>
       </c>
       <c r="O13">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P13">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q13">
-        <v>0.711154716236889</v>
+        <v>0.7824299473288887</v>
       </c>
       <c r="R13">
-        <v>6.400392446132001</v>
+        <v>7.041869525959998</v>
       </c>
       <c r="S13">
-        <v>0.004693100723831788</v>
+        <v>0.00372893714078548</v>
       </c>
       <c r="T13">
-        <v>0.005162809252451946</v>
+        <v>0.004176466254827828</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.09689233333333334</v>
+        <v>0.1066033333333333</v>
       </c>
       <c r="H14">
-        <v>0.290677</v>
+        <v>0.31981</v>
       </c>
       <c r="I14">
-        <v>0.0301097986249185</v>
+        <v>0.02084215510138645</v>
       </c>
       <c r="J14">
-        <v>0.03069729345037739</v>
+        <v>0.02199449439587765</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N14">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O14">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P14">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q14">
-        <v>0.8853492710834444</v>
+        <v>1.669520630982222</v>
       </c>
       <c r="R14">
-        <v>7.968143439751</v>
+        <v>15.02568567884</v>
       </c>
       <c r="S14">
-        <v>0.005842657315066725</v>
+        <v>0.00795667076577318</v>
       </c>
       <c r="T14">
-        <v>0.006427419103100778</v>
+        <v>0.008911592150632742</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.09689233333333334</v>
+        <v>0.1066033333333333</v>
       </c>
       <c r="H15">
-        <v>0.290677</v>
+        <v>0.31981</v>
       </c>
       <c r="I15">
-        <v>0.0301097986249185</v>
+        <v>0.02084215510138645</v>
       </c>
       <c r="J15">
-        <v>0.03069729345037739</v>
+        <v>0.02199449439587765</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N15">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O15">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P15">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q15">
-        <v>1.002530245365334</v>
+        <v>0.75819563389</v>
       </c>
       <c r="R15">
-        <v>6.015181472192001</v>
+        <v>4.54917380334</v>
       </c>
       <c r="S15">
-        <v>0.00661596599553459</v>
+        <v>0.003613440243239298</v>
       </c>
       <c r="T15">
-        <v>0.004852082871664882</v>
+        <v>0.002698071983150828</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.09689233333333334</v>
+        <v>0.1066033333333333</v>
       </c>
       <c r="H16">
-        <v>0.290677</v>
+        <v>0.31981</v>
       </c>
       <c r="I16">
-        <v>0.0301097986249185</v>
+        <v>0.02084215510138645</v>
       </c>
       <c r="J16">
-        <v>0.03069729345037739</v>
+        <v>0.02199449439587765</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N16">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O16">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P16">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q16">
-        <v>1.723575634096556</v>
+        <v>0.8523487994577776</v>
       </c>
       <c r="R16">
-        <v>15.512180706869</v>
+        <v>7.671139195119999</v>
       </c>
       <c r="S16">
-        <v>0.01137433792010869</v>
+        <v>0.004062159310303116</v>
       </c>
       <c r="T16">
-        <v>0.01251273742245745</v>
+        <v>0.004549680147636377</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1847595</v>
+        <v>0.8039255000000001</v>
       </c>
       <c r="H17">
-        <v>0.369519</v>
+        <v>1.607851</v>
       </c>
       <c r="I17">
-        <v>0.05741497957224647</v>
+        <v>0.1571765106872173</v>
       </c>
       <c r="J17">
-        <v>0.03902349748514675</v>
+        <v>0.1105777486911175</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N17">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O17">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P17">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q17">
-        <v>0.4576195352205</v>
+        <v>2.343392989119</v>
       </c>
       <c r="R17">
-        <v>2.745717211323</v>
+        <v>14.060357934714</v>
       </c>
       <c r="S17">
-        <v>0.003019954059149488</v>
+        <v>0.01116823963910604</v>
       </c>
       <c r="T17">
-        <v>0.002214803911251067</v>
+        <v>0.008339065390043312</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1847595</v>
+        <v>0.8039255000000001</v>
       </c>
       <c r="H18">
-        <v>0.369519</v>
+        <v>1.607851</v>
       </c>
       <c r="I18">
-        <v>0.05741497957224647</v>
+        <v>0.1571765106872173</v>
       </c>
       <c r="J18">
-        <v>0.03902349748514675</v>
+        <v>0.1105777486911175</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N18">
         <v>22.018916</v>
       </c>
       <c r="O18">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P18">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q18">
-        <v>1.356067970234</v>
+        <v>5.900522684919333</v>
       </c>
       <c r="R18">
-        <v>8.136407821403999</v>
+        <v>35.403136109516</v>
       </c>
       <c r="S18">
-        <v>0.008949056270549089</v>
+        <v>0.02812095608681284</v>
       </c>
       <c r="T18">
-        <v>0.006563147796890674</v>
+        <v>0.02099726538973509</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1847595</v>
+        <v>0.8039255000000001</v>
       </c>
       <c r="H19">
-        <v>0.369519</v>
+        <v>1.607851</v>
       </c>
       <c r="I19">
-        <v>0.05741497957224647</v>
+        <v>0.1571765106872173</v>
       </c>
       <c r="J19">
-        <v>0.03902349748514675</v>
+        <v>0.1105777486911175</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N19">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O19">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P19">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q19">
-        <v>1.6882314938995</v>
+        <v>12.59032120342733</v>
       </c>
       <c r="R19">
-        <v>10.129388963397</v>
+        <v>75.54192722056401</v>
       </c>
       <c r="S19">
-        <v>0.01114109245867135</v>
+        <v>0.06000347572348821</v>
       </c>
       <c r="T19">
-        <v>0.008170765074494013</v>
+        <v>0.04480320299861482</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1847595</v>
+        <v>0.8039255000000001</v>
       </c>
       <c r="H20">
-        <v>0.369519</v>
+        <v>1.607851</v>
       </c>
       <c r="I20">
-        <v>0.05741497957224647</v>
+        <v>0.1571765106872173</v>
       </c>
       <c r="J20">
-        <v>0.03902349748514675</v>
+        <v>0.1105777486911175</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N20">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O20">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P20">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q20">
-        <v>1.911678463056</v>
+        <v>5.717764961128501</v>
       </c>
       <c r="R20">
-        <v>7.646713852224001</v>
+        <v>22.871059844514</v>
       </c>
       <c r="S20">
-        <v>0.01261567894279877</v>
+        <v>0.0272499617360271</v>
       </c>
       <c r="T20">
-        <v>0.006168141306862034</v>
+        <v>0.01356460941240437</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1847595</v>
+        <v>0.8039255000000001</v>
       </c>
       <c r="H21">
-        <v>0.369519</v>
+        <v>1.607851</v>
       </c>
       <c r="I21">
-        <v>0.05741497957224647</v>
+        <v>0.1571765106872173</v>
       </c>
       <c r="J21">
-        <v>0.03902349748514675</v>
+        <v>0.1105777486911175</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N21">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O21">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P21">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q21">
-        <v>3.2866064982905</v>
+        <v>6.427800269958666</v>
       </c>
       <c r="R21">
-        <v>19.719638989743</v>
+        <v>38.56680161975201</v>
       </c>
       <c r="S21">
-        <v>0.02168919784107777</v>
+        <v>0.03063387750178314</v>
       </c>
       <c r="T21">
-        <v>0.01590663939564896</v>
+        <v>0.02287360550031987</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.209608</v>
+        <v>0.09328633333333332</v>
       </c>
       <c r="H22">
-        <v>0.6288239999999999</v>
+        <v>0.279859</v>
       </c>
       <c r="I22">
-        <v>0.06513678072401927</v>
+        <v>0.01823853126706141</v>
       </c>
       <c r="J22">
-        <v>0.06640771322340643</v>
+        <v>0.01924691913053351</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N22">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O22">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P22">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q22">
-        <v>0.519165269112</v>
+        <v>0.2719238779139999</v>
       </c>
       <c r="R22">
-        <v>4.672487422007999</v>
+        <v>2.447314901226</v>
       </c>
       <c r="S22">
-        <v>0.003426110865369336</v>
+        <v>0.00129594611157401</v>
       </c>
       <c r="T22">
-        <v>0.003769012837468549</v>
+        <v>0.001451479335455916</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.209608</v>
+        <v>0.09328633333333332</v>
       </c>
       <c r="H23">
-        <v>0.6288239999999999</v>
+        <v>0.279859</v>
       </c>
       <c r="I23">
-        <v>0.06513678072401927</v>
+        <v>0.01823853126706141</v>
       </c>
       <c r="J23">
-        <v>0.06640771322340643</v>
+        <v>0.01924691913053351</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N23">
         <v>22.018916</v>
       </c>
       <c r="O23">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P23">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q23">
-        <v>1.538446981642667</v>
+        <v>0.6846879792048887</v>
       </c>
       <c r="R23">
-        <v>13.846022834784</v>
+        <v>6.162191812843998</v>
       </c>
       <c r="S23">
-        <v>0.01015262428593525</v>
+        <v>0.003263114409440241</v>
       </c>
       <c r="T23">
-        <v>0.01116874869825904</v>
+        <v>0.003654737718050909</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.209608</v>
+        <v>0.09328633333333332</v>
       </c>
       <c r="H24">
-        <v>0.6288239999999999</v>
+        <v>0.279859</v>
       </c>
       <c r="I24">
-        <v>0.06513678072401927</v>
+        <v>0.01823853126706141</v>
       </c>
       <c r="J24">
-        <v>0.06640771322340643</v>
+        <v>0.01924691913053351</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N24">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O24">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P24">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q24">
-        <v>1.915283527901333</v>
+        <v>1.460962365986222</v>
       </c>
       <c r="R24">
-        <v>17.237551751112</v>
+        <v>13.148661293876</v>
       </c>
       <c r="S24">
-        <v>0.01263946973269133</v>
+        <v>0.006962715124100297</v>
       </c>
       <c r="T24">
-        <v>0.01390448982922021</v>
+        <v>0.007798346729883144</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.209608</v>
+        <v>0.09328633333333332</v>
       </c>
       <c r="H25">
-        <v>0.6288239999999999</v>
+        <v>0.279859</v>
       </c>
       <c r="I25">
-        <v>0.06513678072401927</v>
+        <v>0.01823853126706141</v>
       </c>
       <c r="J25">
-        <v>0.06640771322340643</v>
+        <v>0.01924691913053351</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N25">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O25">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P25">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q25">
-        <v>2.168782115584</v>
+        <v>0.663481041571</v>
       </c>
       <c r="R25">
-        <v>13.012692693504</v>
+        <v>3.980886249426</v>
       </c>
       <c r="S25">
-        <v>0.01431237490814905</v>
+        <v>0.003162045505245948</v>
       </c>
       <c r="T25">
-        <v>0.01049655170409698</v>
+        <v>0.002361026006480747</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.209608</v>
+        <v>0.09328633333333332</v>
       </c>
       <c r="H26">
-        <v>0.6288239999999999</v>
+        <v>0.279859</v>
       </c>
       <c r="I26">
-        <v>0.06513678072401927</v>
+        <v>0.01823853126706141</v>
       </c>
       <c r="J26">
-        <v>0.06640771322340643</v>
+        <v>0.01924691913053351</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N26">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O26">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P26">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q26">
-        <v>3.728625672258667</v>
+        <v>0.7458724951297776</v>
       </c>
       <c r="R26">
-        <v>33.557631050328</v>
+        <v>6.712852456167999</v>
       </c>
       <c r="S26">
-        <v>0.02460620093187429</v>
+        <v>0.003554710116700915</v>
       </c>
       <c r="T26">
-        <v>0.02706891015436165</v>
+        <v>0.003981329340662795</v>
       </c>
     </row>
   </sheetData>
